--- a/tests/forecast_test.xlsx
+++ b/tests/forecast_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/killreal/PycharmProjects/async-python-sprint-1/async-python-sprint-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/killreal/PycharmProjects/async-python-sprint-1/async-python-sprint-1/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E191C73-55F6-AF4F-B596-17BCA0961FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD65062-829E-1247-B66F-9E0BC08914A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Страна/день</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Без осадков, часов</t>
+  </si>
+  <si>
+    <t>Берлин</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -446,7 +449,7 @@
         <v>16.09</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -466,7 +469,50 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.25</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>19.27</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>13.64</v>
+      </c>
+      <c r="H4">
+        <v>16.3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
